--- a/data/trans_orig/P25F_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D472222A-5CA8-4916-BD50-033D4A8B2E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E287EB-E00C-4F5B-A18C-5F3E720E946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54324877-D176-4800-A55D-9E1DDEDEE65C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F9C4470-4D23-4F2A-A802-E3C1A15C0AE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,703 +83,703 @@
     <t>13,89%</t>
   </si>
   <si>
-    <t>67,45%</t>
+    <t>54,6%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>Por probar</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>Para reducir el consumo del tabaco tradicional</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>Para dejar de fumar</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>Como sustituto del tabaco</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>Por probar</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>Para reducir el consumo del tabaco tradicional</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>Para dejar de fumar</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>Como sustituto del tabaco</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>36,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623FC8BE-4865-47F7-91CD-5439B4A78347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC927B8-5B72-4A83-8D80-24C6ADB1A816}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1815,7 +1815,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1830,13 @@
         <v>8990</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1845,13 +1845,13 @@
         <v>8302</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -1860,13 +1860,13 @@
         <v>17291</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,7 +1922,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1934,13 +1934,13 @@
         <v>1316</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1964,13 +1964,13 @@
         <v>1316</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,7 +1985,7 @@
         <v>3993</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>93</v>
@@ -2293,7 +2293,7 @@
         <v>4513</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>131</v>
@@ -2757,10 +2757,10 @@
         <v>177</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -2769,10 +2769,10 @@
         <v>2230</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>21</v>
@@ -2784,13 +2784,13 @@
         <v>6176</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2864,7 +2864,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -2873,13 +2873,13 @@
         <v>654</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2888,13 +2888,13 @@
         <v>654</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,7 +2912,7 @@
         <v>21</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>47</v>
@@ -2924,13 +2924,13 @@
         <v>824</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -2939,13 +2939,13 @@
         <v>1620</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,7 +2966,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -2975,13 +2975,13 @@
         <v>1238</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -2990,13 +2990,13 @@
         <v>1238</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3077,13 +3077,13 @@
         <v>1281</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -3092,13 +3092,13 @@
         <v>1281</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3166,13 @@
         <v>3639</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="H40" s="7">
         <v>4</v>
@@ -3181,13 +3181,13 @@
         <v>4991</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -3196,13 +3196,13 @@
         <v>8630</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3217,13 @@
         <v>44186</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H41" s="7">
         <v>14</v>
@@ -3232,13 +3232,13 @@
         <v>15323</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M41" s="7">
         <v>38</v>
@@ -3247,13 +3247,13 @@
         <v>59509</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3268,13 @@
         <v>14421</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H42" s="7">
         <v>15</v>
@@ -3283,13 +3283,13 @@
         <v>14073</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M42" s="7">
         <v>28</v>
@@ -3298,13 +3298,13 @@
         <v>28495</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3319,13 @@
         <v>10419</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H43" s="7">
         <v>10</v>
@@ -3334,13 +3334,13 @@
         <v>7759</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M43" s="7">
         <v>17</v>
@@ -3349,13 +3349,13 @@
         <v>18178</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3370,13 @@
         <v>21771</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H44" s="7">
         <v>24</v>

--- a/data/trans_orig/P25F_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E287EB-E00C-4F5B-A18C-5F3E720E946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCC4191-88F2-4542-9739-0F909D520F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F9C4470-4D23-4F2A-A802-E3C1A15C0AE7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AEF37D59-E41E-4B3E-8C20-CB23A10A0817}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC927B8-5B72-4A83-8D80-24C6ADB1A816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F660C241-0D51-4980-B814-8B50E5A74AE1}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25F_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCC4191-88F2-4542-9739-0F909D520F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E37CC2-1B95-4022-919A-836DE0262605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AEF37D59-E41E-4B3E-8C20-CB23A10A0817}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03D527A3-83B2-462E-B302-458FF0E5B34D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>13,89%</t>
   </si>
   <si>
-    <t>54,6%</t>
+    <t>67,45%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>25,96%</t>
+    <t>30,23%</t>
   </si>
   <si>
     <t>Por probar</t>
@@ -98,7 +98,7 @@
     <t>80,72%</t>
   </si>
   <si>
-    <t>46,11%</t>
+    <t>39,31%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,19 +107,19 @@
     <t>53,58%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>Para reducir el consumo del tabaco tradicional</t>
@@ -128,13 +128,13 @@
     <t>7,92%</t>
   </si>
   <si>
-    <t>40,58%</t>
+    <t>42,94%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>15,52%</t>
+    <t>18,96%</t>
   </si>
   <si>
     <t>Para dejar de fumar</t>
@@ -143,469 +143,472 @@
     <t>19,28%</t>
   </si>
   <si>
-    <t>53,89%</t>
+    <t>60,69%</t>
   </si>
   <si>
     <t>10,41%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>Como sustituto del tabaco</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>Como sustituto del tabaco</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>54,19%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
     <t>13,64%</t>
   </si>
   <si>
-    <t>62,14%</t>
+    <t>57,76%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -614,28 +617,28 @@
     <t>20,6%</t>
   </si>
   <si>
-    <t>61,61%</t>
+    <t>62,21%</t>
   </si>
   <si>
     <t>33,79%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>70,76%</t>
+    <t>78,77%</t>
   </si>
   <si>
     <t>25,83%</t>
   </si>
   <si>
-    <t>66,67%</t>
+    <t>68,25%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -644,142 +647,139 @@
     <t>32,06%</t>
   </si>
   <si>
-    <t>75,39%</t>
+    <t>76,56%</t>
   </si>
   <si>
     <t>26,74%</t>
   </si>
   <si>
-    <t>68,11%</t>
+    <t>68,49%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>1,99%</t>
   </si>
   <si>
     <t>46,79%</t>
   </si>
   <si>
-    <t>63,34%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
   </si>
   <si>
     <t>37,82%</t>
   </si>
   <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>27,9%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>23,05%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>13,82%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F660C241-0D51-4980-B814-8B50E5A74AE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526D5747-646B-4261-B00F-BD327CA394A1}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1815,7 +1815,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1830,13 @@
         <v>8990</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1845,13 +1845,13 @@
         <v>8302</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -1860,13 +1860,13 @@
         <v>17291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,7 +1922,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1934,13 +1934,13 @@
         <v>1316</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1964,13 +1964,13 @@
         <v>1316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,7 +1985,7 @@
         <v>3993</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>93</v>
@@ -2293,7 +2293,7 @@
         <v>4513</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>131</v>
@@ -2757,10 +2757,10 @@
         <v>177</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -2769,10 +2769,10 @@
         <v>2230</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>21</v>
@@ -2784,13 +2784,13 @@
         <v>6176</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2864,7 +2864,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -2873,13 +2873,13 @@
         <v>654</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2888,13 +2888,13 @@
         <v>654</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,7 +2912,7 @@
         <v>21</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>47</v>
@@ -2924,13 +2924,13 @@
         <v>824</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -2939,13 +2939,13 @@
         <v>1620</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,7 +2966,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -2975,13 +2975,13 @@
         <v>1238</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -2990,13 +2990,13 @@
         <v>1238</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3077,13 +3077,13 @@
         <v>1281</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -3092,13 +3092,13 @@
         <v>1281</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3166,13 @@
         <v>3639</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="H40" s="7">
         <v>4</v>
@@ -3181,13 +3181,13 @@
         <v>4991</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -3196,13 +3196,13 @@
         <v>8630</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3217,13 @@
         <v>44186</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H41" s="7">
         <v>14</v>
@@ -3232,13 +3232,13 @@
         <v>15323</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M41" s="7">
         <v>38</v>
@@ -3247,13 +3247,13 @@
         <v>59509</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3268,13 @@
         <v>14421</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H42" s="7">
         <v>15</v>
@@ -3283,13 +3283,13 @@
         <v>14073</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M42" s="7">
         <v>28</v>
@@ -3298,13 +3298,13 @@
         <v>28495</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3319,13 @@
         <v>10419</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H43" s="7">
         <v>10</v>
@@ -3334,13 +3334,13 @@
         <v>7759</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M43" s="7">
         <v>17</v>
@@ -3349,13 +3349,13 @@
         <v>18178</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3370,13 @@
         <v>21771</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="H44" s="7">
         <v>24</v>

--- a/data/trans_orig/P25F_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E37CC2-1B95-4022-919A-836DE0262605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C326D5-0DC1-4A1D-9DD1-489E31744F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03D527A3-83B2-462E-B302-458FF0E5B34D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{99AF81E2-9F90-4CDA-9D41-7393CCBBBC5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="250">
   <si>
     <t>Población según el modo de empleo para el que utilizan los cigarrillos electrónicos en 2023 (Tasa respuesta: 1,51%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Otros</t>
@@ -80,706 +80,709 @@
     <t>15,69%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>Por probar</t>
   </si>
   <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>Para reducir el consumo del tabaco tradicional</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>Para dejar de fumar</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>Como sustituto del tabaco</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>10,41%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>Como sustituto del tabaco</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,8 +1197,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526D5747-646B-4261-B00F-BD327CA394A1}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB2BEB-1120-485E-89E5-7FE9D1C7FBA1}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1330,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2733</v>
+        <v>2499</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1345,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2733</v>
+        <v>2499</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1366,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>23681</v>
+        <v>30167</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1381,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>10543</v>
+        <v>9558</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1396,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>34223</v>
+        <v>39726</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1432,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1558</v>
+        <v>1161</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>29</v>
@@ -1447,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>1558</v>
+        <v>1161</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>31</v>
@@ -1468,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>5657</v>
+        <v>5754</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
@@ -1483,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2048</v>
+        <v>1848</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1498,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>7705</v>
+        <v>7602</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -1534,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>2797</v>
+        <v>2304</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1549,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>2797</v>
+        <v>2304</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1570,7 +1573,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>29338</v>
+        <v>35921</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>47</v>
@@ -1585,7 +1588,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="7">
-        <v>19678</v>
+        <v>17370</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>47</v>
@@ -1600,7 +1603,7 @@
         <v>23</v>
       </c>
       <c r="N9" s="7">
-        <v>49016</v>
+        <v>53291</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>47</v>
@@ -1623,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1196</v>
+        <v>1386</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1638,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1124</v>
+        <v>1098</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>51</v>
@@ -1653,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2321</v>
+        <v>2485</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>53</v>
@@ -1674,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>9990</v>
+        <v>10709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1689,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2154</v>
+        <v>1884</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1704,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>12143</v>
+        <v>12594</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>60</v>
@@ -1725,7 +1728,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>10015</v>
+        <v>10275</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>63</v>
@@ -1740,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>4744</v>
+        <v>4170</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>66</v>
@@ -1755,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>14759</v>
+        <v>14445</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>69</v>
@@ -1776,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1262</v>
+        <v>1271</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>72</v>
@@ -1791,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1021</v>
+        <v>852</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>74</v>
@@ -1806,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>2283</v>
+        <v>2124</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1827,7 +1830,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>8990</v>
+        <v>9344</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1842,7 +1845,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>8302</v>
+        <v>7240</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1857,7 +1860,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="7">
-        <v>17291</v>
+        <v>16585</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1878,7 +1881,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="7">
-        <v>31453</v>
+        <v>32986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>47</v>
@@ -1893,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>17344</v>
+        <v>15245</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>47</v>
@@ -1908,7 +1911,7 @@
         <v>34</v>
       </c>
       <c r="N15" s="7">
-        <v>48797</v>
+        <v>48232</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>47</v>
@@ -1931,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1961,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>91</v>
@@ -1982,46 +1985,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>3993</v>
+        <v>3578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>4311</v>
+        <v>3900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,46 +2036,46 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>2499</v>
+        <v>2347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>2854</v>
+        <v>2529</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>5353</v>
+        <v>4875</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,46 +2087,46 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>3254</v>
+        <v>2887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>4452</v>
+        <v>4066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,46 +2138,46 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>4201</v>
+        <v>3929</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1616</v>
+        <v>1396</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>5817</v>
+        <v>5325</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,7 +2189,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>13206</v>
+        <v>12354</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>47</v>
@@ -2201,7 +2204,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="7">
-        <v>8043</v>
+        <v>7134</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -2216,7 +2219,7 @@
         <v>25</v>
       </c>
       <c r="N21" s="7">
-        <v>21249</v>
+        <v>19488</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>47</v>
@@ -2230,7 +2233,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2239,46 +2242,46 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1127</v>
+        <v>1091</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1607</v>
+        <v>1527</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,46 +2293,46 @@
         <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>4513</v>
+        <v>4097</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>1485</v>
+        <v>1312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>5997</v>
+        <v>5409</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,46 +2344,46 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>2317</v>
+        <v>2018</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>2477</v>
+        <v>2181</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,46 +2395,46 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>2302</v>
+        <v>2100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>1436</v>
+        <v>1279</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>3739</v>
+        <v>3379</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,46 +2446,46 @@
         <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>4633</v>
+        <v>4138</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
       </c>
       <c r="I26" s="7">
-        <v>4553</v>
+        <v>4290</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
       </c>
       <c r="N26" s="7">
-        <v>9186</v>
+        <v>8428</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,7 +2497,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="7">
-        <v>12735</v>
+        <v>11588</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>47</v>
@@ -2509,7 +2512,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="7">
-        <v>10271</v>
+        <v>9336</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>47</v>
@@ -2524,7 +2527,7 @@
         <v>29</v>
       </c>
       <c r="N27" s="7">
-        <v>23006</v>
+        <v>20924</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>47</v>
@@ -2538,7 +2541,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2556,7 +2559,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2571,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2586,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,16 +2601,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>1215</v>
+        <v>1131</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2622,22 +2625,22 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>1215</v>
+        <v>1131</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>1748</v>
+        <v>1577</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>170</v>
@@ -2664,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>1362</v>
+        <v>1163</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>172</v>
@@ -2679,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>3110</v>
+        <v>2741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>174</v>
@@ -2709,7 +2712,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2724,7 +2727,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2739,7 +2742,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>3946</v>
+        <v>3382</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>177</v>
@@ -2766,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>2230</v>
+        <v>2169</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>180</v>
@@ -2781,7 +2784,7 @@
         <v>8</v>
       </c>
       <c r="N32" s="7">
-        <v>6176</v>
+        <v>5551</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>182</v>
@@ -2802,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="7">
-        <v>6909</v>
+        <v>6090</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>47</v>
@@ -2817,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="7">
-        <v>3592</v>
+        <v>3332</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>47</v>
@@ -2832,7 +2835,7 @@
         <v>13</v>
       </c>
       <c r="N33" s="7">
-        <v>10500</v>
+        <v>9422</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>47</v>
@@ -2870,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>187</v>
@@ -2885,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>189</v>
@@ -2906,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>21</v>
@@ -2918,10 +2921,10 @@
         <v>47</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>824</v>
+        <v>363</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>192</v>
@@ -2933,19 +2936,19 @@
         <v>193</v>
       </c>
       <c r="M35" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35" s="7">
-        <v>1620</v>
+        <v>1143</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>194</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,31 +2975,31 @@
         <v>2</v>
       </c>
       <c r="I36" s="7">
-        <v>1238</v>
+        <v>1089</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>1238</v>
+        <v>1089</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3047,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,31 +3077,31 @@
         <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>1281</v>
+        <v>1144</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>1281</v>
+        <v>1144</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>47</v>
@@ -3122,25 +3125,25 @@
         <v>47</v>
       </c>
       <c r="H39" s="7">
+        <v>6</v>
+      </c>
+      <c r="I39" s="7">
+        <v>3195</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="7">
         <v>7</v>
       </c>
-      <c r="I39" s="7">
-        <v>3997</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M39" s="7">
-        <v>8</v>
-      </c>
       <c r="N39" s="7">
-        <v>4793</v>
+        <v>3974</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>47</v>
@@ -3154,55 +3157,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>3</v>
-      </c>
-      <c r="D40" s="7">
-        <v>3639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H40" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>4991</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="M40" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>8630</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,49 +3212,47 @@
         <v>18</v>
       </c>
       <c r="C41" s="7">
-        <v>24</v>
-      </c>
-      <c r="D41" s="7">
-        <v>44186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H41" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>15323</v>
+        <v>377</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c r="M41" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>59509</v>
+        <v>377</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,49 +3261,47 @@
         <v>28</v>
       </c>
       <c r="C42" s="7">
-        <v>13</v>
-      </c>
-      <c r="D42" s="7">
-        <v>14421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="H42" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>14073</v>
+        <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="M42" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>28495</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>228</v>
+        <v>11</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,49 +3310,47 @@
         <v>33</v>
       </c>
       <c r="C43" s="7">
-        <v>7</v>
-      </c>
-      <c r="D43" s="7">
-        <v>10419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="H43" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>7759</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="M43" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>18178</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,49 +3359,47 @@
         <v>42</v>
       </c>
       <c r="C44" s="7">
-        <v>18</v>
-      </c>
-      <c r="D44" s="7">
-        <v>21771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="H44" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>20779</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="M44" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>42549</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,63 +3408,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7">
+        <v>377</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>377</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3798</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" s="7">
+        <v>4</v>
+      </c>
+      <c r="I46" s="7">
+        <v>4631</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M46" s="7">
+        <v>7</v>
+      </c>
+      <c r="N46" s="7">
+        <v>8429</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="7">
+        <v>24</v>
+      </c>
+      <c r="D47" s="7">
+        <v>50461</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H47" s="7">
+        <v>14</v>
+      </c>
+      <c r="I47" s="7">
+        <v>13818</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M47" s="7">
+        <v>38</v>
+      </c>
+      <c r="N47" s="7">
+        <v>64279</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7">
+        <v>13</v>
+      </c>
+      <c r="D48" s="7">
+        <v>14362</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48" s="7">
+        <v>15</v>
+      </c>
+      <c r="I48" s="7">
+        <v>12130</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M48" s="7">
+        <v>28</v>
+      </c>
+      <c r="N48" s="7">
+        <v>26492</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="7">
+        <v>7</v>
+      </c>
+      <c r="D49" s="7">
+        <v>10304</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H49" s="7">
+        <v>10</v>
+      </c>
+      <c r="I49" s="7">
+        <v>6866</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M49" s="7">
+        <v>17</v>
+      </c>
+      <c r="N49" s="7">
+        <v>17170</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="7">
+        <v>18</v>
+      </c>
+      <c r="D50" s="7">
+        <v>20793</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H50" s="7">
+        <v>24</v>
+      </c>
+      <c r="I50" s="7">
+        <v>18544</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M50" s="7">
+        <v>42</v>
+      </c>
+      <c r="N50" s="7">
+        <v>39337</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>65</v>
       </c>
-      <c r="D45" s="7">
-        <v>94436</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>99719</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="7">
         <v>67</v>
       </c>
-      <c r="I45" s="7">
-        <v>62925</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>55989</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M51" s="7">
         <v>132</v>
       </c>
-      <c r="N45" s="7">
-        <v>157361</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>248</v>
+      <c r="N51" s="7">
+        <v>155708</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
